--- a/public/storyassets/story.xlsx
+++ b/public/storyassets/story.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\PWA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\Lara new\PWA Vocabulary\public\storyassets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>story_id</t>
   </si>
@@ -66,12 +66,24 @@
 রাতে নীরবে ঝরতে থাকে তুষার। রাস্তার বাতির নিচে প্রতিটি তুষারকণা ক্ষণিক ঝিলমিল করে মিলিয়ে যায়, সাধারণ রাস্তাগুলোকে রূপকথার মতো করে তোলে। চারপাশে ছড়িয়ে পড়ে এক কোমল নীরবতা।
 শীত শুধু ঠান্ডার ঋতু নয়, এটি বিশ্রামের সময়। জমাট মাটির নিচে জীবন ধৈর্য ধরে অপেক্ষা করে। প্রকৃতি ঘুমিয়ে থাকলেও আশার আলো নিভে যায় না, কারণ বসন্ত আবার ফিরবে। ততদিন শীত তার নীরব সৌন্দর্যে পৃথিবীকে জড়িয়ে ধরে রাখে, মনে করিয়ে দেয়—সবচেয়ে ঠান্ডা সময়েও সৌন্দর্য থাকতে পারে। ❄️</t>
   </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>fndasjfnak</t>
+  </si>
+  <si>
+    <t>fsadfafa</t>
+  </si>
+  <si>
+    <t>afsdaf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,22 +106,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFE3E3E3"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -176,19 +192,19 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -471,72 +487,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="7"/>
-    <col min="2" max="2" width="133.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="157.88671875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="133.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="157.88671875" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="156" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="203.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="142.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
